--- a/projeto/Docs/Dicionário de dados.xlsx
+++ b/projeto/Docs/Dicionário de dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pocaz\Desktop\projecto-final\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pocaz\Desktop\projecto-final\projeto\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7C84AE-AA22-4078-8C92-ED2922872F8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB14547C-B1F0-4EFF-A27C-3354A45CFD39}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20835" yWindow="14715" windowWidth="15375" windowHeight="7995" xr2:uid="{E92F487F-D945-4D71-8B77-8D0E69DF42A8}"/>
+    <workbookView xWindow="17955" yWindow="15915" windowWidth="21600" windowHeight="11505" xr2:uid="{E92F487F-D945-4D71-8B77-8D0E69DF42A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -1136,7 +1136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1324,6 +1324,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1333,10 +1363,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1345,12 +1375,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1372,29 +1396,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1712,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB70AEAC-8C8E-48A3-B572-692385E33AC1}">
   <dimension ref="B1:O199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D175" sqref="D175"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1736,19 +1745,19 @@
   <sheetData>
     <row r="1" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="66"/>
+      <c r="B3" s="90"/>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
@@ -1756,7 +1765,7 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="66"/>
+      <c r="B4" s="90"/>
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
@@ -1774,7 +1783,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="66"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
@@ -1792,7 +1801,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="67"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="13" t="s">
         <v>92</v>
       </c>
@@ -1811,19 +1820,19 @@
     </row>
     <row r="8" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="89" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="69"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74"/>
     </row>
     <row r="10" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="66"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
@@ -1831,7 +1840,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="66"/>
+      <c r="B11" s="90"/>
       <c r="C11" s="16" t="s">
         <v>0</v>
       </c>
@@ -1849,7 +1858,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="66"/>
+      <c r="B12" s="90"/>
       <c r="C12" s="12" t="s">
         <v>15</v>
       </c>
@@ -1867,7 +1876,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="67"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="13" t="s">
         <v>92</v>
       </c>
@@ -1880,7 +1889,7 @@
       <c r="F13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="81" t="s">
+      <c r="G13" s="65" t="s">
         <v>233</v>
       </c>
     </row>
@@ -1893,19 +1902,19 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="89" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="73" t="s">
         <v>235</v>
       </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="69"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
     </row>
     <row r="16" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="66"/>
+      <c r="B16" s="90"/>
       <c r="C16" s="2"/>
       <c r="D16" s="40"/>
       <c r="E16" s="2"/>
@@ -1913,7 +1922,7 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="66"/>
+      <c r="B17" s="90"/>
       <c r="C17" s="16" t="s">
         <v>0</v>
       </c>
@@ -1931,7 +1940,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="66"/>
+      <c r="B18" s="90"/>
       <c r="C18" s="12" t="s">
         <v>287</v>
       </c>
@@ -1949,7 +1958,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="67"/>
+      <c r="B19" s="91"/>
       <c r="C19" s="13" t="s">
         <v>92</v>
       </c>
@@ -1962,25 +1971,25 @@
       <c r="F19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="81" t="s">
+      <c r="G19" s="65" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="89" t="s">
         <v>190</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="69"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="74"/>
     </row>
     <row r="22" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="66"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
@@ -1988,7 +1997,7 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="66"/>
+      <c r="B23" s="90"/>
       <c r="C23" s="16" t="s">
         <v>0</v>
       </c>
@@ -2006,7 +2015,7 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="66"/>
+      <c r="B24" s="90"/>
       <c r="C24" s="12" t="s">
         <v>19</v>
       </c>
@@ -2024,7 +2033,7 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="67"/>
+      <c r="B25" s="91"/>
       <c r="C25" s="13" t="s">
         <v>92</v>
       </c>
@@ -2037,23 +2046,23 @@
       <c r="F25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="81"/>
+      <c r="G25" s="65"/>
     </row>
     <row r="26" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="89" t="s">
         <v>191</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="69"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="74"/>
     </row>
     <row r="28" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="66"/>
+      <c r="B28" s="90"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
@@ -2061,7 +2070,7 @@
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="66"/>
+      <c r="B29" s="90"/>
       <c r="C29" s="16" t="s">
         <v>0</v>
       </c>
@@ -2079,7 +2088,7 @@
       </c>
     </row>
     <row r="30" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="66"/>
+      <c r="B30" s="90"/>
       <c r="C30" s="12" t="s">
         <v>192</v>
       </c>
@@ -2097,7 +2106,7 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="67"/>
+      <c r="B31" s="91"/>
       <c r="C31" s="13" t="s">
         <v>92</v>
       </c>
@@ -2110,23 +2119,23 @@
       <c r="F31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="81"/>
+      <c r="G31" s="65"/>
     </row>
     <row r="32" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="C33" s="68" t="s">
+      <c r="C33" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="69"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="74"/>
     </row>
     <row r="34" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="66"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
@@ -2134,7 +2143,7 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="66"/>
+      <c r="B35" s="90"/>
       <c r="C35" s="16" t="s">
         <v>0</v>
       </c>
@@ -2152,7 +2161,7 @@
       </c>
     </row>
     <row r="36" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="66"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="12" t="s">
         <v>25</v>
       </c>
@@ -2170,7 +2179,7 @@
       </c>
     </row>
     <row r="37" spans="2:7" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="67"/>
+      <c r="B37" s="91"/>
       <c r="C37" s="13" t="s">
         <v>92</v>
       </c>
@@ -2189,19 +2198,19 @@
     </row>
     <row r="38" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="89" t="s">
         <v>241</v>
       </c>
-      <c r="C39" s="68" t="s">
+      <c r="C39" s="73" t="s">
         <v>245</v>
       </c>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="69"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="74"/>
     </row>
     <row r="40" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="66"/>
+      <c r="B40" s="90"/>
       <c r="C40" s="2"/>
       <c r="D40" s="63"/>
       <c r="E40" s="2"/>
@@ -2209,7 +2218,7 @@
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="66"/>
+      <c r="B41" s="90"/>
       <c r="C41" s="16" t="s">
         <v>0</v>
       </c>
@@ -2227,7 +2236,7 @@
       </c>
     </row>
     <row r="42" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="66"/>
+      <c r="B42" s="90"/>
       <c r="C42" s="12" t="s">
         <v>242</v>
       </c>
@@ -2245,7 +2254,7 @@
       </c>
     </row>
     <row r="43" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="67"/>
+      <c r="B43" s="91"/>
       <c r="C43" s="13" t="s">
         <v>92</v>
       </c>
@@ -2258,7 +2267,7 @@
       <c r="F43" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G43" s="81"/>
+      <c r="G43" s="65"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="64"/>
@@ -2277,19 +2286,19 @@
       <c r="G45" s="8"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="C46" s="68" t="s">
+      <c r="C46" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="69"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="74"/>
     </row>
     <row r="47" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="66"/>
+      <c r="B47" s="76"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
@@ -2297,7 +2306,7 @@
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="66"/>
+      <c r="B48" s="76"/>
       <c r="C48" s="16" t="s">
         <v>0</v>
       </c>
@@ -2315,7 +2324,7 @@
       </c>
     </row>
     <row r="49" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B49" s="66"/>
+      <c r="B49" s="76"/>
       <c r="C49" s="22" t="s">
         <v>29</v>
       </c>
@@ -2333,7 +2342,7 @@
       </c>
     </row>
     <row r="50" spans="2:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="B50" s="66"/>
+      <c r="B50" s="76"/>
       <c r="C50" s="12" t="s">
         <v>76</v>
       </c>
@@ -2351,7 +2360,7 @@
       </c>
     </row>
     <row r="51" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B51" s="66"/>
+      <c r="B51" s="76"/>
       <c r="C51" s="12" t="s">
         <v>31</v>
       </c>
@@ -2369,7 +2378,7 @@
       </c>
     </row>
     <row r="52" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B52" s="66"/>
+      <c r="B52" s="76"/>
       <c r="C52" s="12" t="s">
         <v>34</v>
       </c>
@@ -2387,7 +2396,7 @@
       </c>
     </row>
     <row r="53" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B53" s="66"/>
+      <c r="B53" s="76"/>
       <c r="C53" s="12" t="s">
         <v>38</v>
       </c>
@@ -2405,7 +2414,7 @@
       </c>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="66"/>
+      <c r="B54" s="76"/>
       <c r="C54" s="12" t="s">
         <v>40</v>
       </c>
@@ -2421,7 +2430,7 @@
       <c r="G54" s="3"/>
     </row>
     <row r="55" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B55" s="66"/>
+      <c r="B55" s="76"/>
       <c r="C55" s="12" t="s">
         <v>43</v>
       </c>
@@ -2437,7 +2446,7 @@
       <c r="G55" s="3"/>
     </row>
     <row r="56" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B56" s="66"/>
+      <c r="B56" s="76"/>
       <c r="C56" s="12" t="s">
         <v>45</v>
       </c>
@@ -2453,7 +2462,7 @@
       <c r="G56" s="3"/>
     </row>
     <row r="57" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B57" s="66"/>
+      <c r="B57" s="76"/>
       <c r="C57" s="12" t="s">
         <v>47</v>
       </c>
@@ -2469,7 +2478,7 @@
       <c r="G57" s="3"/>
     </row>
     <row r="58" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B58" s="66"/>
+      <c r="B58" s="76"/>
       <c r="C58" s="12" t="s">
         <v>1</v>
       </c>
@@ -2485,7 +2494,7 @@
       <c r="G58" s="3"/>
     </row>
     <row r="59" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B59" s="66"/>
+      <c r="B59" s="76"/>
       <c r="C59" s="12" t="s">
         <v>50</v>
       </c>
@@ -2501,7 +2510,7 @@
       <c r="G59" s="3"/>
     </row>
     <row r="60" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B60" s="66"/>
+      <c r="B60" s="76"/>
       <c r="C60" s="12" t="s">
         <v>52</v>
       </c>
@@ -2517,7 +2526,7 @@
       <c r="G60" s="3"/>
     </row>
     <row r="61" spans="2:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="B61" s="66"/>
+      <c r="B61" s="76"/>
       <c r="C61" s="12" t="s">
         <v>54</v>
       </c>
@@ -2533,7 +2542,7 @@
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B62" s="66"/>
+      <c r="B62" s="76"/>
       <c r="C62" s="12" t="s">
         <v>56</v>
       </c>
@@ -2549,7 +2558,7 @@
       <c r="G62" s="3"/>
     </row>
     <row r="63" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="66"/>
+      <c r="B63" s="76"/>
       <c r="C63" s="12" t="s">
         <v>58</v>
       </c>
@@ -2565,7 +2574,7 @@
       <c r="G63" s="3"/>
     </row>
     <row r="64" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B64" s="66"/>
+      <c r="B64" s="76"/>
       <c r="C64" s="12" t="s">
         <v>60</v>
       </c>
@@ -2583,7 +2592,7 @@
       </c>
     </row>
     <row r="65" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B65" s="66"/>
+      <c r="B65" s="76"/>
       <c r="C65" s="12" t="s">
         <v>61</v>
       </c>
@@ -2601,7 +2610,7 @@
       </c>
     </row>
     <row r="66" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B66" s="66"/>
+      <c r="B66" s="76"/>
       <c r="C66" s="12" t="s">
         <v>62</v>
       </c>
@@ -2619,7 +2628,7 @@
       </c>
     </row>
     <row r="67" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B67" s="66"/>
+      <c r="B67" s="76"/>
       <c r="C67" s="12" t="s">
         <v>63</v>
       </c>
@@ -2637,7 +2646,7 @@
       </c>
     </row>
     <row r="68" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B68" s="66"/>
+      <c r="B68" s="76"/>
       <c r="C68" s="12" t="s">
         <v>64</v>
       </c>
@@ -2655,7 +2664,7 @@
       </c>
     </row>
     <row r="69" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B69" s="66"/>
+      <c r="B69" s="76"/>
       <c r="C69" s="12" t="s">
         <v>4</v>
       </c>
@@ -2671,7 +2680,7 @@
       <c r="G69" s="3"/>
     </row>
     <row r="70" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="66"/>
+      <c r="B70" s="76"/>
       <c r="C70" s="12" t="s">
         <v>73</v>
       </c>
@@ -2689,7 +2698,7 @@
       </c>
     </row>
     <row r="71" spans="2:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="67"/>
+      <c r="B71" s="77"/>
       <c r="C71" s="13" t="s">
         <v>80</v>
       </c>
@@ -2708,19 +2717,19 @@
     </row>
     <row r="72" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="65" t="s">
+      <c r="B73" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="C73" s="68" t="s">
+      <c r="C73" s="73" t="s">
         <v>246</v>
       </c>
-      <c r="D73" s="68"/>
-      <c r="E73" s="68"/>
-      <c r="F73" s="68"/>
-      <c r="G73" s="69"/>
+      <c r="D73" s="73"/>
+      <c r="E73" s="73"/>
+      <c r="F73" s="73"/>
+      <c r="G73" s="74"/>
     </row>
     <row r="74" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="66"/>
+      <c r="B74" s="90"/>
       <c r="C74" s="2"/>
       <c r="D74" s="63"/>
       <c r="E74" s="2"/>
@@ -2728,7 +2737,7 @@
       <c r="G74" s="3"/>
     </row>
     <row r="75" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="66"/>
+      <c r="B75" s="90"/>
       <c r="C75" s="16" t="s">
         <v>0</v>
       </c>
@@ -2746,7 +2755,7 @@
       </c>
     </row>
     <row r="76" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B76" s="66"/>
+      <c r="B76" s="90"/>
       <c r="C76" s="12" t="s">
         <v>150</v>
       </c>
@@ -2764,7 +2773,7 @@
       </c>
     </row>
     <row r="77" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B77" s="66"/>
+      <c r="B77" s="90"/>
       <c r="C77" s="12" t="s">
         <v>31</v>
       </c>
@@ -2775,10 +2784,10 @@
         <v>31</v>
       </c>
       <c r="F77" s="2"/>
-      <c r="G77" s="83"/>
+      <c r="G77" s="67"/>
     </row>
     <row r="78" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B78" s="66"/>
+      <c r="B78" s="90"/>
       <c r="C78" s="12" t="s">
         <v>247</v>
       </c>
@@ -2796,7 +2805,7 @@
       </c>
     </row>
     <row r="79" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B79" s="66"/>
+      <c r="B79" s="90"/>
       <c r="C79" s="12" t="s">
         <v>248</v>
       </c>
@@ -2814,8 +2823,8 @@
       </c>
     </row>
     <row r="80" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B80" s="66"/>
-      <c r="C80" s="82" t="s">
+      <c r="B80" s="90"/>
+      <c r="C80" s="66" t="s">
         <v>73</v>
       </c>
       <c r="D80" s="7" t="s">
@@ -2830,7 +2839,7 @@
       <c r="G80" s="6"/>
     </row>
     <row r="81" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="67"/>
+      <c r="B81" s="91"/>
       <c r="C81" s="13" t="s">
         <v>81</v>
       </c>
@@ -2846,7 +2855,7 @@
       <c r="G81" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="J81" s="87"/>
+      <c r="J81" s="71"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
@@ -2860,7 +2869,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-      <c r="J82" s="87"/>
+      <c r="J82" s="71"/>
       <c r="K82" s="8"/>
       <c r="L82" s="7"/>
       <c r="M82" s="8"/>
@@ -2868,39 +2877,39 @@
       <c r="O82" s="8"/>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B83" s="65" t="s">
+      <c r="B83" s="89" t="s">
         <v>254</v>
       </c>
-      <c r="C83" s="68" t="s">
+      <c r="C83" s="73" t="s">
         <v>255</v>
       </c>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="69"/>
-      <c r="J83" s="87"/>
-      <c r="K83" s="88"/>
-      <c r="L83" s="88"/>
-      <c r="M83" s="88"/>
-      <c r="N83" s="88"/>
-      <c r="O83" s="88"/>
+      <c r="D83" s="73"/>
+      <c r="E83" s="73"/>
+      <c r="F83" s="73"/>
+      <c r="G83" s="74"/>
+      <c r="J83" s="71"/>
+      <c r="K83" s="72"/>
+      <c r="L83" s="72"/>
+      <c r="M83" s="72"/>
+      <c r="N83" s="72"/>
+      <c r="O83" s="72"/>
     </row>
     <row r="84" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="66"/>
+      <c r="B84" s="90"/>
       <c r="C84" s="2"/>
       <c r="D84" s="63"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="3"/>
-      <c r="J84" s="87"/>
-      <c r="K84" s="88"/>
+      <c r="J84" s="71"/>
+      <c r="K84" s="72"/>
       <c r="L84" s="7"/>
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
     </row>
     <row r="85" spans="2:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="66"/>
+      <c r="B85" s="90"/>
       <c r="C85" s="16" t="s">
         <v>0</v>
       </c>
@@ -2916,15 +2925,15 @@
       <c r="G85" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J85" s="87"/>
-      <c r="K85" s="88"/>
+      <c r="J85" s="71"/>
+      <c r="K85" s="72"/>
       <c r="L85" s="7"/>
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
     </row>
     <row r="86" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B86" s="66"/>
+      <c r="B86" s="90"/>
       <c r="C86" s="12" t="s">
         <v>256</v>
       </c>
@@ -2940,15 +2949,15 @@
       <c r="G86" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J86" s="87"/>
-      <c r="K86" s="88"/>
+      <c r="J86" s="71"/>
+      <c r="K86" s="72"/>
       <c r="L86" s="7"/>
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
     </row>
     <row r="87" spans="2:15" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="67"/>
+      <c r="B87" s="91"/>
       <c r="C87" s="13" t="s">
         <v>264</v>
       </c>
@@ -2964,8 +2973,8 @@
       <c r="G87" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="J87" s="87"/>
-      <c r="K87" s="88"/>
+      <c r="J87" s="71"/>
+      <c r="K87" s="72"/>
       <c r="L87" s="7"/>
       <c r="M87" s="8"/>
       <c r="N87" s="8"/>
@@ -2978,33 +2987,33 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="J88" s="87"/>
-      <c r="K88" s="88"/>
+      <c r="J88" s="71"/>
+      <c r="K88" s="72"/>
       <c r="L88" s="7"/>
       <c r="M88" s="8"/>
       <c r="N88" s="8"/>
       <c r="O88" s="8"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B89" s="65" t="s">
+      <c r="B89" s="89" t="s">
         <v>257</v>
       </c>
-      <c r="C89" s="68" t="s">
+      <c r="C89" s="73" t="s">
         <v>258</v>
       </c>
-      <c r="D89" s="68"/>
-      <c r="E89" s="68"/>
-      <c r="F89" s="68"/>
-      <c r="G89" s="69"/>
-      <c r="J89" s="87"/>
-      <c r="K89" s="88"/>
+      <c r="D89" s="73"/>
+      <c r="E89" s="73"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="74"/>
+      <c r="J89" s="71"/>
+      <c r="K89" s="72"/>
       <c r="L89" s="7"/>
       <c r="M89" s="8"/>
       <c r="N89" s="8"/>
       <c r="O89" s="8"/>
     </row>
     <row r="90" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="66"/>
+      <c r="B90" s="90"/>
       <c r="C90" s="2"/>
       <c r="D90" s="63"/>
       <c r="E90" s="2"/>
@@ -3018,7 +3027,7 @@
       <c r="O90" s="2"/>
     </row>
     <row r="91" spans="2:15" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="66"/>
+      <c r="B91" s="90"/>
       <c r="C91" s="16" t="s">
         <v>0</v>
       </c>
@@ -3036,7 +3045,7 @@
       </c>
     </row>
     <row r="92" spans="2:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B92" s="66"/>
+      <c r="B92" s="90"/>
       <c r="C92" s="12" t="s">
         <v>256</v>
       </c>
@@ -3054,7 +3063,7 @@
       </c>
     </row>
     <row r="93" spans="2:15" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="67"/>
+      <c r="B93" s="91"/>
       <c r="C93" s="13" t="s">
         <v>259</v>
       </c>
@@ -3080,19 +3089,19 @@
       <c r="G94" s="2"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B95" s="65" t="s">
+      <c r="B95" s="89" t="s">
         <v>262</v>
       </c>
-      <c r="C95" s="68" t="s">
+      <c r="C95" s="73" t="s">
         <v>263</v>
       </c>
-      <c r="D95" s="68"/>
-      <c r="E95" s="68"/>
-      <c r="F95" s="68"/>
-      <c r="G95" s="69"/>
+      <c r="D95" s="73"/>
+      <c r="E95" s="73"/>
+      <c r="F95" s="73"/>
+      <c r="G95" s="74"/>
     </row>
     <row r="96" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="66"/>
+      <c r="B96" s="90"/>
       <c r="C96" s="2"/>
       <c r="D96" s="63"/>
       <c r="E96" s="2"/>
@@ -3100,7 +3109,7 @@
       <c r="G96" s="3"/>
     </row>
     <row r="97" spans="2:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="66"/>
+      <c r="B97" s="90"/>
       <c r="C97" s="16" t="s">
         <v>0</v>
       </c>
@@ -3118,7 +3127,7 @@
       </c>
     </row>
     <row r="98" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B98" s="66"/>
+      <c r="B98" s="90"/>
       <c r="C98" s="12" t="s">
         <v>259</v>
       </c>
@@ -3136,7 +3145,7 @@
       </c>
     </row>
     <row r="99" spans="2:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="67"/>
+      <c r="B99" s="91"/>
       <c r="C99" s="13" t="s">
         <v>264</v>
       </c>
@@ -3149,7 +3158,7 @@
       <c r="F99" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G99" s="81" t="s">
+      <c r="G99" s="65" t="s">
         <v>266</v>
       </c>
       <c r="J99" s="64"/>
@@ -3174,16 +3183,16 @@
       <c r="O100" s="2"/>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B101" s="65" t="s">
+      <c r="B101" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="C101" s="68" t="s">
+      <c r="C101" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="D101" s="68"/>
-      <c r="E101" s="68"/>
-      <c r="F101" s="68"/>
-      <c r="G101" s="69"/>
+      <c r="D101" s="73"/>
+      <c r="E101" s="73"/>
+      <c r="F101" s="73"/>
+      <c r="G101" s="74"/>
       <c r="J101" s="64"/>
       <c r="K101" s="21"/>
       <c r="L101" s="63"/>
@@ -3192,7 +3201,7 @@
       <c r="O101" s="2"/>
     </row>
     <row r="102" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="66"/>
+      <c r="B102" s="90"/>
       <c r="C102" s="2"/>
       <c r="D102" s="1"/>
       <c r="E102" s="2"/>
@@ -3206,7 +3215,7 @@
       <c r="O102" s="2"/>
     </row>
     <row r="103" spans="2:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="66"/>
+      <c r="B103" s="90"/>
       <c r="C103" s="16" t="s">
         <v>0</v>
       </c>
@@ -3230,7 +3239,7 @@
       <c r="O103" s="14"/>
     </row>
     <row r="104" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="66"/>
+      <c r="B104" s="90"/>
       <c r="C104" s="22" t="s">
         <v>83</v>
       </c>
@@ -3246,15 +3255,15 @@
       <c r="G104" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="J104" s="84"/>
-      <c r="K104" s="85"/>
-      <c r="L104" s="85"/>
-      <c r="M104" s="85"/>
-      <c r="N104" s="85"/>
-      <c r="O104" s="85"/>
+      <c r="J104" s="68"/>
+      <c r="K104" s="69"/>
+      <c r="L104" s="69"/>
+      <c r="M104" s="69"/>
+      <c r="N104" s="69"/>
+      <c r="O104" s="69"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B105" s="66"/>
+      <c r="B105" s="90"/>
       <c r="C105" s="12" t="s">
         <v>31</v>
       </c>
@@ -3268,7 +3277,7 @@
         <v>94</v>
       </c>
       <c r="G105" s="3"/>
-      <c r="J105" s="84"/>
+      <c r="J105" s="68"/>
       <c r="K105" s="2"/>
       <c r="L105" s="63"/>
       <c r="M105" s="2"/>
@@ -3276,7 +3285,7 @@
       <c r="O105" s="2"/>
     </row>
     <row r="106" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B106" s="66"/>
+      <c r="B106" s="90"/>
       <c r="C106" s="12" t="s">
         <v>92</v>
       </c>
@@ -3290,7 +3299,7 @@
         <v>36</v>
       </c>
       <c r="G106" s="3"/>
-      <c r="J106" s="84"/>
+      <c r="J106" s="68"/>
       <c r="K106" s="21"/>
       <c r="L106" s="21"/>
       <c r="M106" s="21"/>
@@ -3298,7 +3307,7 @@
       <c r="O106" s="21"/>
     </row>
     <row r="107" spans="2:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="67"/>
+      <c r="B107" s="91"/>
       <c r="C107" s="13" t="s">
         <v>259</v>
       </c>
@@ -3311,10 +3320,10 @@
       <c r="F107" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G107" s="81" t="s">
+      <c r="G107" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="J107" s="84"/>
+      <c r="J107" s="68"/>
       <c r="K107" s="21"/>
       <c r="L107" s="63"/>
       <c r="M107" s="2"/>
@@ -3328,7 +3337,7 @@
       <c r="E108" s="28"/>
       <c r="F108" s="28"/>
       <c r="G108" s="28"/>
-      <c r="J108" s="84"/>
+      <c r="J108" s="68"/>
       <c r="K108" s="21"/>
       <c r="L108" s="63"/>
       <c r="M108" s="2"/>
@@ -3336,27 +3345,27 @@
       <c r="O108" s="2"/>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B109" s="65" t="s">
+      <c r="B109" s="89" t="s">
         <v>201</v>
       </c>
-      <c r="C109" s="68" t="s">
+      <c r="C109" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="D109" s="68"/>
-      <c r="E109" s="68"/>
-      <c r="F109" s="68"/>
-      <c r="G109" s="69"/>
+      <c r="D109" s="73"/>
+      <c r="E109" s="73"/>
+      <c r="F109" s="73"/>
+      <c r="G109" s="74"/>
     </row>
     <row r="110" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="66"/>
-      <c r="C110" s="72"/>
-      <c r="D110" s="72"/>
-      <c r="E110" s="72"/>
-      <c r="F110" s="72"/>
-      <c r="G110" s="73"/>
+      <c r="B110" s="90"/>
+      <c r="C110" s="78"/>
+      <c r="D110" s="78"/>
+      <c r="E110" s="78"/>
+      <c r="F110" s="78"/>
+      <c r="G110" s="79"/>
     </row>
     <row r="111" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="66"/>
+      <c r="B111" s="90"/>
       <c r="C111" s="2"/>
       <c r="D111" s="1"/>
       <c r="E111" s="2"/>
@@ -3364,7 +3373,7 @@
       <c r="G111" s="3"/>
     </row>
     <row r="112" spans="2:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="66"/>
+      <c r="B112" s="90"/>
       <c r="C112" s="16" t="s">
         <v>0</v>
       </c>
@@ -3382,7 +3391,7 @@
       </c>
     </row>
     <row r="113" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B113" s="66"/>
+      <c r="B113" s="90"/>
       <c r="C113" s="12" t="s">
         <v>157</v>
       </c>
@@ -3400,7 +3409,7 @@
       </c>
     </row>
     <row r="114" spans="2:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="B114" s="66"/>
+      <c r="B114" s="90"/>
       <c r="C114" s="12" t="s">
         <v>155</v>
       </c>
@@ -3418,7 +3427,7 @@
       </c>
     </row>
     <row r="115" spans="2:15" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="67"/>
+      <c r="B115" s="91"/>
       <c r="C115" s="13" t="s">
         <v>159</v>
       </c>
@@ -3444,19 +3453,19 @@
       <c r="G116" s="28"/>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B117" s="65" t="s">
+      <c r="B117" s="89" t="s">
         <v>202</v>
       </c>
-      <c r="C117" s="68" t="s">
+      <c r="C117" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="D117" s="68"/>
-      <c r="E117" s="68"/>
-      <c r="F117" s="68"/>
-      <c r="G117" s="69"/>
+      <c r="D117" s="73"/>
+      <c r="E117" s="73"/>
+      <c r="F117" s="73"/>
+      <c r="G117" s="74"/>
     </row>
     <row r="118" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="66"/>
+      <c r="B118" s="90"/>
       <c r="C118" s="2"/>
       <c r="D118" s="1"/>
       <c r="E118" s="2"/>
@@ -3470,7 +3479,7 @@
       <c r="O118" s="14"/>
     </row>
     <row r="119" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B119" s="66"/>
+      <c r="B119" s="90"/>
       <c r="C119" s="22" t="s">
         <v>0</v>
       </c>
@@ -3488,7 +3497,7 @@
       </c>
     </row>
     <row r="120" spans="2:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B120" s="66"/>
+      <c r="B120" s="90"/>
       <c r="C120" s="12" t="s">
         <v>159</v>
       </c>
@@ -3506,7 +3515,7 @@
       </c>
     </row>
     <row r="121" spans="2:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="67"/>
+      <c r="B121" s="91"/>
       <c r="C121" s="13" t="s">
         <v>92</v>
       </c>
@@ -3530,19 +3539,19 @@
       <c r="G122" s="28"/>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B123" s="65" t="s">
+      <c r="B123" s="89" t="s">
         <v>204</v>
       </c>
-      <c r="C123" s="68" t="s">
+      <c r="C123" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="D123" s="68"/>
-      <c r="E123" s="68"/>
-      <c r="F123" s="68"/>
-      <c r="G123" s="69"/>
+      <c r="D123" s="73"/>
+      <c r="E123" s="73"/>
+      <c r="F123" s="73"/>
+      <c r="G123" s="74"/>
     </row>
     <row r="124" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="66"/>
+      <c r="B124" s="90"/>
       <c r="C124" s="2"/>
       <c r="D124" s="1"/>
       <c r="E124" s="2"/>
@@ -3556,7 +3565,7 @@
       <c r="O124" s="14"/>
     </row>
     <row r="125" spans="2:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="66"/>
+      <c r="B125" s="90"/>
       <c r="C125" s="16" t="s">
         <v>0</v>
       </c>
@@ -3580,7 +3589,7 @@
       <c r="O125" s="14"/>
     </row>
     <row r="126" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B126" s="66"/>
+      <c r="B126" s="90"/>
       <c r="C126" s="12" t="s">
         <v>76</v>
       </c>
@@ -3598,7 +3607,7 @@
       </c>
     </row>
     <row r="127" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B127" s="66"/>
+      <c r="B127" s="90"/>
       <c r="C127" s="12" t="s">
         <v>31</v>
       </c>
@@ -3614,7 +3623,7 @@
       <c r="G127" s="3"/>
     </row>
     <row r="128" spans="2:15" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="67"/>
+      <c r="B128" s="91"/>
       <c r="C128" s="13" t="s">
         <v>81</v>
       </c>
@@ -3640,19 +3649,19 @@
       <c r="G129" s="28"/>
     </row>
     <row r="130" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B130" s="65" t="s">
+      <c r="B130" s="75" t="s">
         <v>203</v>
       </c>
-      <c r="C130" s="70" t="s">
+      <c r="C130" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="D130" s="70"/>
-      <c r="E130" s="70"/>
-      <c r="F130" s="70"/>
-      <c r="G130" s="71"/>
+      <c r="D130" s="80"/>
+      <c r="E130" s="80"/>
+      <c r="F130" s="80"/>
+      <c r="G130" s="81"/>
     </row>
     <row r="131" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="66"/>
+      <c r="B131" s="76"/>
       <c r="C131" s="2"/>
       <c r="D131" s="1"/>
       <c r="E131" s="2"/>
@@ -3666,7 +3675,7 @@
       <c r="O131" s="14"/>
     </row>
     <row r="132" spans="2:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="66"/>
+      <c r="B132" s="76"/>
       <c r="C132" s="16" t="s">
         <v>0</v>
       </c>
@@ -3684,7 +3693,7 @@
       </c>
     </row>
     <row r="133" spans="2:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B133" s="66"/>
+      <c r="B133" s="76"/>
       <c r="C133" s="12" t="s">
         <v>163</v>
       </c>
@@ -3702,7 +3711,7 @@
       </c>
     </row>
     <row r="134" spans="2:15" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="67"/>
+      <c r="B134" s="77"/>
       <c r="C134" s="13" t="s">
         <v>76</v>
       </c>
@@ -3728,19 +3737,19 @@
       <c r="G135" s="28"/>
     </row>
     <row r="136" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B136" s="65" t="s">
+      <c r="B136" s="75" t="s">
         <v>205</v>
       </c>
-      <c r="C136" s="68" t="s">
+      <c r="C136" s="73" t="s">
         <v>172</v>
       </c>
-      <c r="D136" s="68"/>
-      <c r="E136" s="68"/>
-      <c r="F136" s="68"/>
-      <c r="G136" s="69"/>
+      <c r="D136" s="73"/>
+      <c r="E136" s="73"/>
+      <c r="F136" s="73"/>
+      <c r="G136" s="74"/>
     </row>
     <row r="137" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="66"/>
+      <c r="B137" s="76"/>
       <c r="C137" s="2"/>
       <c r="D137" s="1"/>
       <c r="E137" s="2"/>
@@ -3748,7 +3757,7 @@
       <c r="G137" s="3"/>
     </row>
     <row r="138" spans="2:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="66"/>
+      <c r="B138" s="76"/>
       <c r="C138" s="16" t="s">
         <v>0</v>
       </c>
@@ -3772,7 +3781,7 @@
       <c r="O138" s="14"/>
     </row>
     <row r="139" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B139" s="66"/>
+      <c r="B139" s="76"/>
       <c r="C139" s="12" t="s">
         <v>173</v>
       </c>
@@ -3790,7 +3799,7 @@
       </c>
     </row>
     <row r="140" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B140" s="66"/>
+      <c r="B140" s="76"/>
       <c r="C140" s="12" t="s">
         <v>92</v>
       </c>
@@ -3806,7 +3815,7 @@
       <c r="G140" s="3"/>
     </row>
     <row r="141" spans="2:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="66"/>
+      <c r="B141" s="76"/>
       <c r="C141" s="12" t="s">
         <v>176</v>
       </c>
@@ -3824,7 +3833,7 @@
       </c>
     </row>
     <row r="142" spans="2:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B142" s="66"/>
+      <c r="B142" s="76"/>
       <c r="C142" s="12" t="s">
         <v>178</v>
       </c>
@@ -3842,7 +3851,7 @@
       </c>
     </row>
     <row r="143" spans="2:15" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="67"/>
+      <c r="B143" s="77"/>
       <c r="C143" s="13" t="s">
         <v>182</v>
       </c>
@@ -3868,19 +3877,19 @@
       <c r="G144" s="28"/>
     </row>
     <row r="145" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B145" s="65" t="s">
+      <c r="B145" s="75" t="s">
         <v>206</v>
       </c>
-      <c r="C145" s="68" t="s">
+      <c r="C145" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="D145" s="68"/>
-      <c r="E145" s="68"/>
-      <c r="F145" s="68"/>
-      <c r="G145" s="69"/>
+      <c r="D145" s="73"/>
+      <c r="E145" s="73"/>
+      <c r="F145" s="73"/>
+      <c r="G145" s="74"/>
     </row>
     <row r="146" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="66"/>
+      <c r="B146" s="76"/>
       <c r="C146" s="2"/>
       <c r="D146" s="1"/>
       <c r="E146" s="2"/>
@@ -3888,7 +3897,7 @@
       <c r="G146" s="3"/>
     </row>
     <row r="147" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B147" s="66"/>
+      <c r="B147" s="76"/>
       <c r="C147" s="22" t="s">
         <v>0</v>
       </c>
@@ -3912,7 +3921,7 @@
       <c r="O147" s="14"/>
     </row>
     <row r="148" spans="2:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B148" s="66"/>
+      <c r="B148" s="76"/>
       <c r="C148" s="12" t="s">
         <v>182</v>
       </c>
@@ -3930,7 +3939,7 @@
       </c>
     </row>
     <row r="149" spans="2:15" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="67"/>
+      <c r="B149" s="77"/>
       <c r="C149" s="13" t="s">
         <v>92</v>
       </c>
@@ -3956,19 +3965,19 @@
       <c r="G150" s="28"/>
     </row>
     <row r="151" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="65" t="s">
+      <c r="B151" s="75" t="s">
         <v>268</v>
       </c>
-      <c r="C151" s="68" t="s">
+      <c r="C151" s="73" t="s">
         <v>269</v>
       </c>
-      <c r="D151" s="68"/>
-      <c r="E151" s="68"/>
-      <c r="F151" s="68"/>
-      <c r="G151" s="69"/>
+      <c r="D151" s="73"/>
+      <c r="E151" s="73"/>
+      <c r="F151" s="73"/>
+      <c r="G151" s="74"/>
     </row>
     <row r="152" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="66"/>
+      <c r="B152" s="76"/>
       <c r="C152" s="2"/>
       <c r="D152" s="63"/>
       <c r="E152" s="2"/>
@@ -3976,7 +3985,7 @@
       <c r="G152" s="3"/>
     </row>
     <row r="153" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B153" s="66"/>
+      <c r="B153" s="76"/>
       <c r="C153" s="22" t="s">
         <v>0</v>
       </c>
@@ -3994,7 +4003,7 @@
       </c>
     </row>
     <row r="154" spans="2:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B154" s="66"/>
+      <c r="B154" s="76"/>
       <c r="C154" s="12" t="s">
         <v>270</v>
       </c>
@@ -4012,7 +4021,7 @@
       </c>
     </row>
     <row r="155" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B155" s="66"/>
+      <c r="B155" s="76"/>
       <c r="C155" s="12" t="s">
         <v>173</v>
       </c>
@@ -4030,8 +4039,8 @@
       </c>
     </row>
     <row r="156" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B156" s="66"/>
-      <c r="C156" s="86" t="s">
+      <c r="B156" s="76"/>
+      <c r="C156" s="70" t="s">
         <v>271</v>
       </c>
       <c r="D156" s="63" t="s">
@@ -4046,8 +4055,8 @@
       <c r="G156" s="3"/>
     </row>
     <row r="157" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B157" s="66"/>
-      <c r="C157" s="86" t="s">
+      <c r="B157" s="76"/>
+      <c r="C157" s="70" t="s">
         <v>272</v>
       </c>
       <c r="D157" s="63" t="s">
@@ -4064,7 +4073,7 @@
       </c>
     </row>
     <row r="158" spans="2:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="67"/>
+      <c r="B158" s="77"/>
       <c r="C158" s="52" t="s">
         <v>273</v>
       </c>
@@ -4083,19 +4092,19 @@
     </row>
     <row r="159" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="160" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B160" s="65" t="s">
+      <c r="B160" s="75" t="s">
         <v>281</v>
       </c>
-      <c r="C160" s="68" t="s">
+      <c r="C160" s="73" t="s">
         <v>280</v>
       </c>
-      <c r="D160" s="68"/>
-      <c r="E160" s="68"/>
-      <c r="F160" s="68"/>
-      <c r="G160" s="69"/>
+      <c r="D160" s="73"/>
+      <c r="E160" s="73"/>
+      <c r="F160" s="73"/>
+      <c r="G160" s="74"/>
     </row>
     <row r="161" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="66"/>
+      <c r="B161" s="76"/>
       <c r="C161" s="2"/>
       <c r="D161" s="63"/>
       <c r="E161" s="2"/>
@@ -4103,7 +4112,7 @@
       <c r="G161" s="3"/>
     </row>
     <row r="162" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B162" s="66"/>
+      <c r="B162" s="76"/>
       <c r="C162" s="22" t="s">
         <v>0</v>
       </c>
@@ -4121,7 +4130,7 @@
       </c>
     </row>
     <row r="163" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B163" s="66"/>
+      <c r="B163" s="76"/>
       <c r="C163" s="12" t="s">
         <v>270</v>
       </c>
@@ -4139,7 +4148,7 @@
       </c>
     </row>
     <row r="164" spans="2:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="67"/>
+      <c r="B164" s="77"/>
       <c r="C164" s="13" t="s">
         <v>81</v>
       </c>
@@ -4158,19 +4167,19 @@
     </row>
     <row r="165" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="166" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="65" t="s">
+      <c r="B166" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="C166" s="68" t="s">
+      <c r="C166" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="D166" s="68"/>
-      <c r="E166" s="68"/>
-      <c r="F166" s="68"/>
-      <c r="G166" s="69"/>
+      <c r="D166" s="73"/>
+      <c r="E166" s="73"/>
+      <c r="F166" s="73"/>
+      <c r="G166" s="74"/>
     </row>
     <row r="167" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="66"/>
+      <c r="B167" s="76"/>
       <c r="C167" s="32"/>
       <c r="D167" s="63"/>
       <c r="E167" s="2"/>
@@ -4178,7 +4187,7 @@
       <c r="G167" s="3"/>
     </row>
     <row r="168" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="66"/>
+      <c r="B168" s="76"/>
       <c r="C168" s="33" t="s">
         <v>0</v>
       </c>
@@ -4196,7 +4205,7 @@
       </c>
     </row>
     <row r="169" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B169" s="66"/>
+      <c r="B169" s="76"/>
       <c r="C169" s="34" t="s">
         <v>81</v>
       </c>
@@ -4214,7 +4223,7 @@
       </c>
     </row>
     <row r="170" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B170" s="66"/>
+      <c r="B170" s="76"/>
       <c r="C170" s="34" t="s">
         <v>91</v>
       </c>
@@ -4232,7 +4241,7 @@
       </c>
     </row>
     <row r="171" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B171" s="66"/>
+      <c r="B171" s="76"/>
       <c r="C171" s="34" t="s">
         <v>92</v>
       </c>
@@ -4248,7 +4257,7 @@
       <c r="G171" s="6"/>
     </row>
     <row r="172" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B172" s="66"/>
+      <c r="B172" s="76"/>
       <c r="C172" s="34" t="s">
         <v>7</v>
       </c>
@@ -4266,7 +4275,7 @@
       </c>
     </row>
     <row r="173" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B173" s="66"/>
+      <c r="B173" s="76"/>
       <c r="C173" s="34" t="s">
         <v>96</v>
       </c>
@@ -4282,7 +4291,7 @@
       <c r="G173" s="6"/>
     </row>
     <row r="174" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B174" s="66"/>
+      <c r="B174" s="76"/>
       <c r="C174" s="34" t="s">
         <v>285</v>
       </c>
@@ -4300,7 +4309,7 @@
       </c>
     </row>
     <row r="175" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B175" s="66"/>
+      <c r="B175" s="76"/>
       <c r="C175" s="34" t="s">
         <v>100</v>
       </c>
@@ -4316,7 +4325,7 @@
       <c r="G175" s="3"/>
     </row>
     <row r="176" spans="2:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="B176" s="66"/>
+      <c r="B176" s="76"/>
       <c r="C176" s="12" t="s">
         <v>287</v>
       </c>
@@ -4334,7 +4343,7 @@
       </c>
     </row>
     <row r="177" spans="2:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="B177" s="66"/>
+      <c r="B177" s="76"/>
       <c r="C177" s="34" t="s">
         <v>106</v>
       </c>
@@ -4352,7 +4361,7 @@
       </c>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B178" s="66"/>
+      <c r="B178" s="76"/>
       <c r="C178" s="34" t="s">
         <v>108</v>
       </c>
@@ -4362,7 +4371,7 @@
       <c r="G178" s="10"/>
     </row>
     <row r="179" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B179" s="66"/>
+      <c r="B179" s="76"/>
       <c r="C179" s="34" t="s">
         <v>109</v>
       </c>
@@ -4380,7 +4389,7 @@
       </c>
     </row>
     <row r="180" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B180" s="66"/>
+      <c r="B180" s="76"/>
       <c r="C180" s="34" t="s">
         <v>112</v>
       </c>
@@ -4396,7 +4405,7 @@
       <c r="G180" s="3"/>
     </row>
     <row r="181" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B181" s="66"/>
+      <c r="B181" s="76"/>
       <c r="C181" s="34" t="s">
         <v>114</v>
       </c>
@@ -4412,7 +4421,7 @@
       <c r="G181" s="3"/>
     </row>
     <row r="182" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B182" s="66"/>
+      <c r="B182" s="76"/>
       <c r="C182" s="34" t="s">
         <v>23</v>
       </c>
@@ -4430,7 +4439,7 @@
       </c>
     </row>
     <row r="183" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B183" s="66"/>
+      <c r="B183" s="76"/>
       <c r="C183" s="34" t="s">
         <v>117</v>
       </c>
@@ -4446,7 +4455,7 @@
       <c r="G183" s="3"/>
     </row>
     <row r="184" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B184" s="66"/>
+      <c r="B184" s="76"/>
       <c r="C184" s="34" t="s">
         <v>119</v>
       </c>
@@ -4462,7 +4471,7 @@
       <c r="G184" s="3"/>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B185" s="66"/>
+      <c r="B185" s="76"/>
       <c r="C185" s="34" t="s">
         <v>121</v>
       </c>
@@ -4478,7 +4487,7 @@
       <c r="G185" s="3"/>
     </row>
     <row r="186" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B186" s="66"/>
+      <c r="B186" s="76"/>
       <c r="C186" s="34" t="s">
         <v>124</v>
       </c>
@@ -4496,7 +4505,7 @@
       </c>
     </row>
     <row r="187" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B187" s="66"/>
+      <c r="B187" s="76"/>
       <c r="C187" s="34" t="s">
         <v>128</v>
       </c>
@@ -4514,7 +4523,7 @@
       </c>
     </row>
     <row r="188" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B188" s="66"/>
+      <c r="B188" s="76"/>
       <c r="C188" s="34" t="s">
         <v>125</v>
       </c>
@@ -4532,7 +4541,7 @@
       </c>
     </row>
     <row r="189" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B189" s="66"/>
+      <c r="B189" s="76"/>
       <c r="C189" s="34" t="s">
         <v>130</v>
       </c>
@@ -4548,7 +4557,7 @@
       <c r="G189" s="3"/>
     </row>
     <row r="190" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B190" s="66"/>
+      <c r="B190" s="76"/>
       <c r="C190" s="34" t="s">
         <v>132</v>
       </c>
@@ -4564,7 +4573,7 @@
       <c r="G190" s="3"/>
     </row>
     <row r="191" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B191" s="66"/>
+      <c r="B191" s="76"/>
       <c r="C191" s="34" t="s">
         <v>134</v>
       </c>
@@ -4580,7 +4589,7 @@
       <c r="G191" s="3"/>
     </row>
     <row r="192" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B192" s="66"/>
+      <c r="B192" s="76"/>
       <c r="C192" s="34" t="s">
         <v>140</v>
       </c>
@@ -4596,7 +4605,7 @@
       <c r="G192" s="3"/>
     </row>
     <row r="193" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B193" s="66"/>
+      <c r="B193" s="76"/>
       <c r="C193" s="34" t="s">
         <v>136</v>
       </c>
@@ -4612,7 +4621,7 @@
       <c r="G193" s="3"/>
     </row>
     <row r="194" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B194" s="66"/>
+      <c r="B194" s="76"/>
       <c r="C194" s="34" t="s">
         <v>138</v>
       </c>
@@ -4628,7 +4637,7 @@
       <c r="G194" s="3"/>
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B195" s="66"/>
+      <c r="B195" s="76"/>
       <c r="C195" s="34" t="s">
         <v>142</v>
       </c>
@@ -4638,7 +4647,7 @@
       <c r="G195" s="10"/>
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B196" s="66"/>
+      <c r="B196" s="76"/>
       <c r="C196" s="34" t="s">
         <v>143</v>
       </c>
@@ -4648,7 +4657,7 @@
       <c r="G196" s="10"/>
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B197" s="66"/>
+      <c r="B197" s="76"/>
       <c r="C197" s="34" t="s">
         <v>144</v>
       </c>
@@ -4658,7 +4667,7 @@
       <c r="G197" s="10"/>
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B198" s="66"/>
+      <c r="B198" s="76"/>
       <c r="C198" s="34" t="s">
         <v>145</v>
       </c>
@@ -4668,7 +4677,7 @@
       <c r="G198" s="10"/>
     </row>
     <row r="199" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="67"/>
+      <c r="B199" s="77"/>
       <c r="C199" s="35" t="s">
         <v>4</v>
       </c>
@@ -4685,28 +4694,16 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C166:G166"/>
-    <mergeCell ref="B166:B199"/>
-    <mergeCell ref="C151:G151"/>
-    <mergeCell ref="B151:B158"/>
-    <mergeCell ref="B160:B164"/>
-    <mergeCell ref="C160:G160"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="B73:B81"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B101:B107"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="B136:B143"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="B145:B149"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="B130:B134"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="B123:B128"/>
+    <mergeCell ref="C123:G123"/>
     <mergeCell ref="B109:B115"/>
     <mergeCell ref="C109:G110"/>
     <mergeCell ref="B46:B71"/>
@@ -4717,18 +4714,30 @@
     <mergeCell ref="C89:G89"/>
     <mergeCell ref="B95:B99"/>
     <mergeCell ref="C95:G95"/>
+    <mergeCell ref="B101:B107"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:G21"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="C15:G15"/>
-    <mergeCell ref="B136:B143"/>
-    <mergeCell ref="C136:G136"/>
-    <mergeCell ref="B145:B149"/>
-    <mergeCell ref="C145:G145"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="B130:B134"/>
-    <mergeCell ref="C130:G130"/>
-    <mergeCell ref="B123:B128"/>
-    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="B73:B81"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C166:G166"/>
+    <mergeCell ref="B166:B199"/>
+    <mergeCell ref="C151:G151"/>
+    <mergeCell ref="B151:B158"/>
+    <mergeCell ref="B160:B164"/>
+    <mergeCell ref="C160:G160"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4753,19 +4762,19 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="66"/>
+      <c r="B3" s="76"/>
       <c r="C3" s="32"/>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
@@ -4773,7 +4782,7 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="66"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="33" t="s">
         <v>0</v>
       </c>
@@ -4791,7 +4800,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="66"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="34" t="s">
         <v>81</v>
       </c>
@@ -4809,7 +4818,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="66"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="34" t="s">
         <v>91</v>
       </c>
@@ -4827,7 +4836,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="66"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="34" t="s">
         <v>92</v>
       </c>
@@ -4843,7 +4852,7 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="2:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="B8" s="66"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="34" t="s">
         <v>5</v>
       </c>
@@ -4861,7 +4870,7 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="66"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="34" t="s">
         <v>96</v>
       </c>
@@ -4877,7 +4886,7 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="66"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="34" t="s">
         <v>98</v>
       </c>
@@ -4889,7 +4898,7 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="66"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="34" t="s">
         <v>100</v>
       </c>
@@ -4905,7 +4914,7 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="66"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="34" t="s">
         <v>102</v>
       </c>
@@ -4921,7 +4930,7 @@
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="66"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="34" t="s">
         <v>105</v>
       </c>
@@ -4931,7 +4940,7 @@
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="66"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="34" t="s">
         <v>106</v>
       </c>
@@ -4945,7 +4954,7 @@
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="66"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="34" t="s">
         <v>108</v>
       </c>
@@ -4955,7 +4964,7 @@
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="66"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="34" t="s">
         <v>109</v>
       </c>
@@ -4973,7 +4982,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="66"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="34" t="s">
         <v>112</v>
       </c>
@@ -4989,7 +4998,7 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="66"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="34" t="s">
         <v>114</v>
       </c>
@@ -5005,7 +5014,7 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="66"/>
+      <c r="B19" s="76"/>
       <c r="C19" s="34" t="s">
         <v>23</v>
       </c>
@@ -5023,7 +5032,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="66"/>
+      <c r="B20" s="76"/>
       <c r="C20" s="34" t="s">
         <v>117</v>
       </c>
@@ -5039,7 +5048,7 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="66"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="34" t="s">
         <v>119</v>
       </c>
@@ -5055,7 +5064,7 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="66"/>
+      <c r="B22" s="76"/>
       <c r="C22" s="34" t="s">
         <v>121</v>
       </c>
@@ -5071,7 +5080,7 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="66"/>
+      <c r="B23" s="76"/>
       <c r="C23" s="34" t="s">
         <v>124</v>
       </c>
@@ -5089,7 +5098,7 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="66"/>
+      <c r="B24" s="76"/>
       <c r="C24" s="34" t="s">
         <v>128</v>
       </c>
@@ -5107,7 +5116,7 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="66"/>
+      <c r="B25" s="76"/>
       <c r="C25" s="34" t="s">
         <v>125</v>
       </c>
@@ -5125,7 +5134,7 @@
       </c>
     </row>
     <row r="26" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="66"/>
+      <c r="B26" s="76"/>
       <c r="C26" s="34" t="s">
         <v>130</v>
       </c>
@@ -5141,7 +5150,7 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="66"/>
+      <c r="B27" s="76"/>
       <c r="C27" s="34" t="s">
         <v>132</v>
       </c>
@@ -5157,7 +5166,7 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="66"/>
+      <c r="B28" s="76"/>
       <c r="C28" s="34" t="s">
         <v>134</v>
       </c>
@@ -5173,7 +5182,7 @@
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="66"/>
+      <c r="B29" s="76"/>
       <c r="C29" s="34" t="s">
         <v>140</v>
       </c>
@@ -5189,7 +5198,7 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B30" s="66"/>
+      <c r="B30" s="76"/>
       <c r="C30" s="34" t="s">
         <v>136</v>
       </c>
@@ -5205,7 +5214,7 @@
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="66"/>
+      <c r="B31" s="76"/>
       <c r="C31" s="34" t="s">
         <v>138</v>
       </c>
@@ -5221,7 +5230,7 @@
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="66"/>
+      <c r="B32" s="76"/>
       <c r="C32" s="34" t="s">
         <v>142</v>
       </c>
@@ -5231,7 +5240,7 @@
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="66"/>
+      <c r="B33" s="76"/>
       <c r="C33" s="34" t="s">
         <v>143</v>
       </c>
@@ -5241,7 +5250,7 @@
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="66"/>
+      <c r="B34" s="76"/>
       <c r="C34" s="34" t="s">
         <v>144</v>
       </c>
@@ -5251,7 +5260,7 @@
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="66"/>
+      <c r="B35" s="76"/>
       <c r="C35" s="34" t="s">
         <v>145</v>
       </c>
@@ -5261,7 +5270,7 @@
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="67"/>
+      <c r="B36" s="77"/>
       <c r="C36" s="35" t="s">
         <v>4</v>
       </c>
@@ -5304,17 +5313,17 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="86" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
       <c r="G2" s="36"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="36"/>
@@ -5328,19 +5337,19 @@
       <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="74"/>
+      <c r="E4" s="82"/>
       <c r="G4" s="36"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
@@ -5399,12 +5408,12 @@
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="86" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="80"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="88"/>
       <c r="G9" s="36"/>
       <c r="H9" s="55"/>
       <c r="I9" s="53"/>
@@ -5423,14 +5432,14 @@
       <c r="K10" s="36"/>
     </row>
     <row r="11" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74" t="s">
+      <c r="C11" s="82"/>
+      <c r="D11" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="E11" s="74"/>
+      <c r="E11" s="82"/>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
@@ -5519,23 +5528,23 @@
     </row>
     <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="86" t="s">
         <v>231</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="80"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74" t="s">
+      <c r="C22" s="82"/>
+      <c r="D22" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="E22" s="74"/>
+      <c r="E22" s="82"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="38" t="s">
